--- a/zpi-backend/src/test/resources/ZPI_dane.xlsx
+++ b/zpi-backend/src/test/resources/ZPI_dane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\main\resources\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24282856-8BE0-42CE-90F8-6DD5843E4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35272DA-5148-4EBA-A978-F7FE43BCE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="49">
   <si>
     <t>INDEKS</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>W04-ISTP-0?0P-OSIW7</t>
+  </si>
+  <si>
+    <t>X PROGRAM</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>Y PROGRAM</t>
   </si>
 </sst>
 </file>
@@ -559,10 +574,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,7 +593,7 @@
     <col min="9" max="9" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>123456</v>
       </c>
@@ -636,7 +651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1">
       <c r="A3" s="6">
         <v>234567</v>
       </c>
@@ -665,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="3">
         <v>12345</v>
       </c>
@@ -694,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1">
+    <row r="5" spans="1:17" ht="19.5" customHeight="1">
       <c r="A5" s="6">
         <v>1234567</v>
       </c>
@@ -723,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -751,8 +766,14 @@
       <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -781,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -807,8 +828,17 @@
       <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -837,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -864,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -893,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -922,7 +952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -951,7 +981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -980,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="3">
         <v>2</v>
       </c>

--- a/zpi-backend/src/test/resources/ZPI_dane.xlsx
+++ b/zpi-backend/src/test/resources/ZPI_dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECFE79F-44A7-4401-939E-535DDDE83E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF0800-D4D4-4C93-86DD-ABB80E4CE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>INDEKS</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>3I-IST-000</t>
+  </si>
+  <si>
+    <t>W04-ISTP-000P-OSIW8</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,14 +777,30 @@
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44835</v>
+      </c>
+      <c r="H11" s="8">
+        <v>44835</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="6"/>

--- a/zpi-backend/src/test/resources/ZPI_dane.xlsx
+++ b/zpi-backend/src/test/resources/ZPI_dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF0800-D4D4-4C93-86DD-ABB80E4CE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D929ECE-2227-4D02-B83C-CB9FE6B76DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>INDEKS</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,7 +556,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6">
+        <v>123456</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -564,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
@@ -584,9 +586,11 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="6">
-        <v>123456</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>234567</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
@@ -610,13 +614,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="6">
-        <v>123456</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
@@ -640,13 +644,13 @@
       <c r="A6" s="6">
         <v>123456</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
@@ -670,13 +674,13 @@
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -700,13 +704,13 @@
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="8">
         <v>44835</v>
       </c>
@@ -730,9 +734,7 @@
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
@@ -762,9 +764,7 @@
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="8">
         <v>44835</v>
       </c>
@@ -776,7 +776,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>123456</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -786,9 +788,7 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
@@ -930,20 +930,20 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="6"/>
@@ -952,7 +952,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
     </row>
@@ -974,7 +974,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
@@ -985,8 +985,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
@@ -997,7 +997,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
@@ -1018,8 +1018,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1">
@@ -1029,20 +1029,20 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="6"/>
@@ -1051,7 +1051,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="7"/>
     </row>
@@ -1063,7 +1063,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
@@ -1073,7 +1073,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="7"/>
     </row>
@@ -1084,8 +1084,8 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1">
@@ -1096,151 +1096,52 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zpi-backend/src/test/resources/ZPI_dane.xlsx
+++ b/zpi-backend/src/test/resources/ZPI_dane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D929ECE-2227-4D02-B83C-CB9FE6B76DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D57CC1-5CC0-4340-B2CF-7A9FB6B868EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
   <si>
     <t>INDEKS</t>
   </si>
@@ -71,6 +71,48 @@
   </si>
   <si>
     <t>W04-ISTP-000P-OSIW8</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>W04-ISTP-000A-OSIE7</t>
+  </si>
+  <si>
+    <t>2020/21-Z</t>
+  </si>
+  <si>
+    <t>1.10.20</t>
+  </si>
+  <si>
+    <t>Krupiński</t>
+  </si>
+  <si>
+    <t>W10-ISTP-000A-OSIE7</t>
+  </si>
+  <si>
+    <t>W04-INAP-CCSA-OSME3</t>
+  </si>
+  <si>
+    <t>Pudzianowski</t>
+  </si>
+  <si>
+    <t>Mariusz</t>
+  </si>
+  <si>
+    <t>2022/23-Z</t>
+  </si>
+  <si>
+    <t>1.10.22</t>
+  </si>
+  <si>
+    <t>W04-CBEP-000P-OSME3</t>
+  </si>
+  <si>
+    <t>W04-TELP-000P-OSIE7</t>
+  </si>
+  <si>
+    <t>W04-TINP-000P-OSME3</t>
   </si>
 </sst>
 </file>
@@ -481,7 +523,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,92 +845,236 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="6">
+        <v>234284</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="6">
+        <v>255356</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="6"/>
